--- a/biology/Botanique/Hydnangiacée/Hydnangiacée.xlsx
+++ b/biology/Botanique/Hydnangiacée/Hydnangiacée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hydnangiac%C3%A9e</t>
+          <t>Hydnangiacée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hydnangiaceae sont une famille de champignons basidiomycètes de l'ordre des Agaricales. La famille comporte une trentaine d'espèces avec les vingt-cinq du genre Laccaria, dont les plus connues en Europe sont le Laccaire améthyste et le Laccaire laqué. Les espèces d'Hydnangiaceae sont mycorhiziens avec diverses espèces d'arbres, tant dans des forêts de conifères que de feuillus. Le genre Hydnangium est hypogée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hydnangiac%C3%A9e</t>
+          <t>Hydnangiacée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Classement phylogénétique des Hydnangiaceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clade des Agaricoïdes
@@ -527,9 +541,9 @@
 Laccaria 25 sp.
 Laccaria pumila
 Laccaria ochropurpurea
-Laccaria amethystina[1]
-Maccagnia carnica[2] 1sp.
-Podohydnangium australe[3] 1sp.
+Laccaria amethystina
+Maccagnia carnica 1sp.
+Podohydnangium australe 1sp.
 Bolbitiaceae
 ...</t>
         </is>
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hydnangiac%C3%A9e</t>
+          <t>Hydnangiacée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Classement Linnéen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Actuellement la famille comprend quatre genres et une trentaine d'espèces
 Genre Hydnangium
